--- a/biology/Botanique/Acide_amanullinique/Acide_amanullinique.xlsx
+++ b/biology/Botanique/Acide_amanullinique/Acide_amanullinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide amanulline est un peptide cyclique constitué de huit résidus d'acides aminés. Il fait partie des amatoxines, un groupe de toxines isolées dans un certain nombre de champignons du genre Amanita, tels que l'amanite phalloïde ou encore l'amanite vireuse.
@@ -512,9 +524,11 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres amatoxines, l'acide amanulline est un inhibiteur de l'ARN polymérase II. Après ingestion, il se lie à l'ARN polymérase, ce qui empêche la synthèse de l'ARN messager, provoquant la cytolyse des hépatocytes (cellules du foie) et des cellules du rein[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres amatoxines, l'acide amanulline est un inhibiteur de l'ARN polymérase II. Après ingestion, il se lie à l'ARN polymérase, ce qui empêche la synthèse de l'ARN messager, provoquant la cytolyse des hépatocytes (cellules du foie) et des cellules du rein.
 </t>
         </is>
       </c>
